--- a/medicine/Autisme/Le_Moindre_Geste/Le_Moindre_Geste.xlsx
+++ b/medicine/Autisme/Le_Moindre_Geste/Le_Moindre_Geste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Moindre Geste est un documentaire français réalisé par Fernand Deligny, Josée Manenti et Jean-Pierre Daniel, sorti en 1971.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Entre le registre documentaire et la fiction, ce film a la particularité d'être joué par des enfants en souffrance psychique (délinquants, psychotiques, autistes). Tourné dans les Cévennes, il montre la tentative de Fernand Deligny de mener avec ces enfants une « cure libre » éloignée des pratiques asilaires.
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Le Moindre Geste
 Réalisation : Fernand Deligny, Jean-Pierre Daniel et Josée Manenti
@@ -555,7 +571,7 @@
 Pays :  France
 Genre : documentaire
 Durée : 105 minutes
-Date de sortie : France - mai 1971 (Festival de Cannes)[1] et 17 novembre 2004</t>
+Date de sortie : France - mai 1971 (Festival de Cannes) et 17 novembre 2004</t>
         </is>
       </c>
     </row>
@@ -583,9 +599,11 @@
           <t>Tournage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le film a été tourné[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le film a été tourné :
 dans le département du Gard à Anduze
 dans le département de la Lozère</t>
         </is>
